--- a/Database_GMS.xlsx
+++ b/Database_GMS.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dac\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ED639A-8895-4248-B26E-47ED6384FB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="master" sheetId="1" r:id="rId1"/>
+    <sheet name="Normalization" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="76">
   <si>
     <t>User_id</t>
   </si>
@@ -212,65 +214,53 @@
     <t>MO1001</t>
   </si>
   <si>
-    <t>RA1002</t>
-  </si>
-  <si>
-    <t>SO1003</t>
-  </si>
-  <si>
-    <t>RA1004</t>
-  </si>
-  <si>
-    <t>SU1005</t>
-  </si>
-  <si>
-    <t>PR1006</t>
-  </si>
-  <si>
-    <t>VE1007</t>
-  </si>
-  <si>
-    <t>DI1008</t>
-  </si>
-  <si>
-    <t>SH1009</t>
-  </si>
-  <si>
-    <t>AK1010</t>
-  </si>
-  <si>
-    <t>RU1011</t>
-  </si>
-  <si>
-    <t>UD1012</t>
-  </si>
-  <si>
-    <t>RU1013</t>
-  </si>
-  <si>
-    <t>AN1014</t>
-  </si>
-  <si>
     <t>USER</t>
   </si>
   <si>
-    <t>27/11/2020</t>
-  </si>
-  <si>
-    <t>14/9/2021</t>
-  </si>
-  <si>
-    <t>23/10/2019</t>
-  </si>
-  <si>
-    <t>21/06/2020</t>
+    <t>DI1002</t>
+  </si>
+  <si>
+    <t>UD1004</t>
+  </si>
+  <si>
+    <t>RU1005</t>
+  </si>
+  <si>
+    <t>AN1006</t>
+  </si>
+  <si>
+    <t>RA1007</t>
+  </si>
+  <si>
+    <t>RU1008</t>
+  </si>
+  <si>
+    <t>SU1009</t>
+  </si>
+  <si>
+    <t>SH1003</t>
+  </si>
+  <si>
+    <t>VE1010</t>
+  </si>
+  <si>
+    <t>PR1011</t>
+  </si>
+  <si>
+    <t>AK1012</t>
+  </si>
+  <si>
+    <t>SO1013</t>
+  </si>
+  <si>
+    <t>RA1014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +272,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -551,13 +547,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -572,12 +565,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -595,7 +583,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -619,10 +607,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -902,21 +911,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36:J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -924,992 +932,1055 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1001</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="22">
+        <v>43761</v>
+      </c>
+      <c r="D3" s="9">
+        <v>27</v>
+      </c>
+      <c r="E3" s="9">
+        <v>45</v>
+      </c>
+      <c r="F3" s="9">
+        <v>163</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="23">
+        <v>43832</v>
+      </c>
+      <c r="D4" s="2">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2">
+        <v>50</v>
+      </c>
+      <c r="F4" s="2">
+        <v>155</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1003</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="23">
+        <v>43992</v>
+      </c>
+      <c r="D5" s="2">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2">
+        <v>70</v>
+      </c>
+      <c r="F5" s="2">
+        <v>198</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1004</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="23">
+        <v>44003</v>
+      </c>
+      <c r="D6" s="2">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2">
+        <v>90</v>
+      </c>
+      <c r="F6" s="2">
+        <v>175</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1005</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="23">
+        <v>44019</v>
+      </c>
+      <c r="D7" s="2">
+        <v>35</v>
+      </c>
+      <c r="E7" s="2">
+        <v>83</v>
+      </c>
+      <c r="F7" s="2">
+        <v>183</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1006</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="23">
+        <v>44039</v>
+      </c>
+      <c r="D8" s="2">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="F8" s="2">
+        <v>189</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1007</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="23">
+        <v>44175</v>
+      </c>
+      <c r="D9" s="2">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2">
         <v>60</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>1001</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="30">
-        <v>44562</v>
-      </c>
-      <c r="D3" s="12">
-        <v>27</v>
-      </c>
-      <c r="E3" s="12">
-        <v>45</v>
-      </c>
-      <c r="F3" s="12">
-        <v>163</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="F9" s="2">
+        <v>167</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1008</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="23">
+        <v>44293</v>
+      </c>
+      <c r="D10" s="2">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2">
+        <v>65</v>
+      </c>
+      <c r="F10" s="2">
+        <v>159</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1009</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="23">
+        <v>44359</v>
+      </c>
+      <c r="D11" s="2">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2">
+        <v>73</v>
+      </c>
+      <c r="F11" s="2">
+        <v>170</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1010</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="23">
+        <v>44413</v>
+      </c>
+      <c r="D12" s="2">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2">
+        <v>79</v>
+      </c>
+      <c r="F12" s="2">
+        <v>156</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1011</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="23">
+        <v>44813</v>
+      </c>
+      <c r="D13" s="2">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2">
+        <v>84</v>
+      </c>
+      <c r="F13" s="2">
+        <v>194</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1012</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="23">
+        <v>44815</v>
+      </c>
+      <c r="D14" s="2">
+        <v>28</v>
+      </c>
+      <c r="E14" s="2">
+        <v>76</v>
+      </c>
+      <c r="F14" s="2">
+        <v>173</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>1013</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="23">
+        <v>44857</v>
+      </c>
+      <c r="D15" s="2">
+        <v>33</v>
+      </c>
+      <c r="E15" s="2">
+        <v>68</v>
+      </c>
+      <c r="F15" s="2">
+        <v>169</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>1014</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="24">
+        <v>44910</v>
+      </c>
+      <c r="D16" s="6">
+        <v>26</v>
+      </c>
+      <c r="E16" s="6">
+        <v>55</v>
+      </c>
+      <c r="F16" s="6">
+        <v>154</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>1002</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="31">
-        <v>43832</v>
-      </c>
-      <c r="D4" s="4">
-        <v>25</v>
-      </c>
-      <c r="E4" s="4">
-        <v>50</v>
-      </c>
-      <c r="F4" s="4">
-        <v>155</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>1003</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="31">
-        <v>43992</v>
-      </c>
-      <c r="D5" s="4">
-        <v>20</v>
-      </c>
-      <c r="E5" s="4">
-        <v>70</v>
-      </c>
-      <c r="F5" s="4">
-        <v>198</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>1004</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="31">
-        <v>44813</v>
-      </c>
-      <c r="D6" s="4">
-        <v>30</v>
-      </c>
-      <c r="E6" s="4">
-        <v>90</v>
-      </c>
-      <c r="F6" s="4">
-        <v>175</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>1005</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="31">
-        <v>44359</v>
-      </c>
-      <c r="D7" s="4">
-        <v>35</v>
-      </c>
-      <c r="E7" s="4">
-        <v>83</v>
-      </c>
-      <c r="F7" s="4">
-        <v>183</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>1006</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="31">
-        <v>44175</v>
-      </c>
-      <c r="D8" s="4">
-        <v>29</v>
-      </c>
-      <c r="E8" s="4">
-        <v>75</v>
-      </c>
-      <c r="F8" s="4">
-        <v>189</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>1007</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="31">
-        <v>44293</v>
-      </c>
-      <c r="D9" s="4">
-        <v>22</v>
-      </c>
-      <c r="E9" s="4">
-        <v>60</v>
-      </c>
-      <c r="F9" s="4">
-        <v>167</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>1008</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="4">
-        <v>24</v>
-      </c>
-      <c r="E10" s="4">
-        <v>65</v>
-      </c>
-      <c r="F10" s="4">
-        <v>159</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>1009</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="4">
-        <v>37</v>
-      </c>
-      <c r="E11" s="4">
-        <v>73</v>
-      </c>
-      <c r="F11" s="4">
-        <v>170</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>1010</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="31">
-        <v>44019</v>
-      </c>
-      <c r="D12" s="4">
-        <v>39</v>
-      </c>
-      <c r="E12" s="4">
-        <v>79</v>
-      </c>
-      <c r="F12" s="4">
-        <v>156</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>1011</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="4">
-        <v>21</v>
-      </c>
-      <c r="E13" s="4">
-        <v>84</v>
-      </c>
-      <c r="F13" s="4">
-        <v>194</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>1012</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="4">
-        <v>28</v>
-      </c>
-      <c r="E14" s="4">
-        <v>76</v>
-      </c>
-      <c r="F14" s="4">
-        <v>173</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>1013</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="31">
-        <v>44413</v>
-      </c>
-      <c r="D15" s="4">
-        <v>33</v>
-      </c>
-      <c r="E15" s="4">
-        <v>68</v>
-      </c>
-      <c r="F15" s="4">
-        <v>169</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>1014</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="32">
-        <v>44815</v>
-      </c>
-      <c r="D16" s="9">
-        <v>26</v>
-      </c>
-      <c r="E16" s="9">
-        <v>55</v>
-      </c>
-      <c r="F16" s="9">
-        <v>154</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="33"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="29" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="9">
         <v>1700</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="2">
         <v>3500</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="31" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="6">
         <v>5500</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="41"/>
-    </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="s">
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="15" t="s">
+      <c r="C34" s="12" t="s">
         <v>16</v>
       </c>
+      <c r="D34" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="E34" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="9">
         <v>1001</v>
       </c>
-      <c r="C35" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="30">
-        <v>44562</v>
-      </c>
-      <c r="E35" s="21" t="s">
+      <c r="C35" s="22">
+        <v>43761</v>
+      </c>
+      <c r="D35" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="22">
+      <c r="E35" s="17">
         <v>1700</v>
       </c>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="4">
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="2">
         <v>1002</v>
       </c>
-      <c r="C36" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="31">
+      <c r="C36" s="23">
         <v>43832</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="D36" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="7">
+      <c r="E36" s="4">
         <v>3500</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="2">
         <v>1003</v>
       </c>
-      <c r="C37" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="31">
+      <c r="C37" s="23">
         <v>43992</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="D37" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="7">
+      <c r="E37" s="4">
         <v>5500</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="2">
         <v>1004</v>
       </c>
-      <c r="C38" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="31">
+      <c r="C38" s="23">
+        <v>44003</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="4">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1005</v>
+      </c>
+      <c r="C39" s="23">
+        <v>44019</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="4">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1006</v>
+      </c>
+      <c r="C40" s="23">
+        <v>44039</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1007</v>
+      </c>
+      <c r="C41" s="23">
+        <v>44175</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1008</v>
+      </c>
+      <c r="C42" s="23">
+        <v>44293</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="4">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1009</v>
+      </c>
+      <c r="C43" s="23">
+        <v>44359</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="4">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1010</v>
+      </c>
+      <c r="C44" s="23">
+        <v>44413</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="4">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1011</v>
+      </c>
+      <c r="C45" s="23">
         <v>44813</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="7">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="4">
-        <v>1005</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="31">
-        <v>44359</v>
-      </c>
-      <c r="E39" s="4" t="s">
+      <c r="D45" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="7">
+      <c r="E45" s="4">
         <v>3500</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="4">
-        <v>1006</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="31">
-        <v>44175</v>
-      </c>
-      <c r="E40" s="4" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1012</v>
+      </c>
+      <c r="C46" s="23">
+        <v>44815</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="4">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1013</v>
+      </c>
+      <c r="C47" s="23">
+        <v>44857</v>
+      </c>
+      <c r="D47" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="7">
+      <c r="E47" s="4">
         <v>1700</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="4">
-        <v>1007</v>
-      </c>
-      <c r="C41" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="31">
-        <v>44293</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F41" s="7">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="4">
-        <v>1008</v>
-      </c>
-      <c r="C42" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E42" s="4" t="s">
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="6">
+        <v>1014</v>
+      </c>
+      <c r="C48" s="24">
+        <v>44910</v>
+      </c>
+      <c r="D48" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="7">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="4">
-        <v>1009</v>
-      </c>
-      <c r="C43" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" s="7">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="4">
-        <v>1010</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="31">
-        <v>44019</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="7">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="4">
-        <v>1011</v>
-      </c>
-      <c r="C45" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F45" s="7">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" s="4">
-        <v>1012</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F46" s="7">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="4">
-        <v>1013</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="31">
-        <v>44413</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F47" s="7">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" s="9">
-        <v>1014</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="32">
-        <v>44815</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F48" s="10">
+      <c r="E48" s="7">
         <v>3500</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="28"/>
+      <c r="B51" s="20"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="34" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="32" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:C16">
+    <sortCondition ref="C3:C16"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="20"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="25"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1700</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3500</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="6">
+        <v>5500</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>